--- a/upload_validation.xlsx
+++ b/upload_validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahshi/Documents/GitHub/PyLEPR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D7C0858-A102-FA4C-9B98-39CD2F68C1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CD135B-034D-FF4C-8CF2-710B0C15C081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="213">
   <si>
     <t>Measured Parameter</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>Run_16</t>
+  </si>
+  <si>
+    <t>wt%</t>
   </si>
 </sst>
 </file>
@@ -1774,6 +1777,10 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1814,10 +1821,6 @@
     <xf numFmtId="0" fontId="35" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2243,10 +2246,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="183"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="96" t="s">
         <v>29</v>
       </c>
@@ -2255,7 +2258,7 @@
       <c r="A2" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="188" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2263,7 +2266,7 @@
       <c r="A3" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="185"/>
+      <c r="B3" s="189"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="58"/>
@@ -2515,11 +2518,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="190" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="183"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="187"/>
       <c r="D1" s="96" t="s">
         <v>29</v>
       </c>
@@ -2688,7 +2691,7 @@
       <c r="V6" s="103"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="182" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2733,12 +2736,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="191" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
       <c r="E1" s="130" t="s">
         <v>29</v>
       </c>
@@ -3449,10 +3452,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="24" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="192" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="192"/>
       <c r="C1" s="125"/>
       <c r="D1" s="96" t="s">
         <v>29</v>
@@ -3479,8 +3482,8 @@
       <c r="Z1"/>
     </row>
     <row r="2" spans="1:26" s="24" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="69"/>
       <c r="D2" s="70"/>
       <c r="E2" s="69"/>
@@ -3507,10 +3510,10 @@
       <c r="Z2"/>
     </row>
     <row r="3" spans="1:26" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="196" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="23"/>
@@ -3528,10 +3531,10 @@
       <c r="K3" s="92"/>
       <c r="L3" s="92"/>
       <c r="M3" s="23"/>
-      <c r="N3" s="193" t="s">
+      <c r="N3" s="197" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="193"/>
+      <c r="O3" s="197"/>
       <c r="P3" s="95"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="93" t="s">
@@ -3754,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3959,14 +3962,30 @@
       <c r="G4" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
+      <c r="H4" s="111" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="111" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="111" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="111" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="111" t="s">
+        <v>212</v>
+      </c>
+      <c r="M4" s="111" t="s">
+        <v>212</v>
+      </c>
+      <c r="N4" s="111" t="s">
+        <v>212</v>
+      </c>
+      <c r="O4" s="111" t="s">
+        <v>212</v>
+      </c>
       <c r="P4" s="111"/>
       <c r="Q4" s="111"/>
       <c r="R4" s="111"/>
@@ -4178,13 +4197,13 @@
       <c r="BL6" s="13"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="182" t="s">
         <v>196</v>
       </c>
       <c r="H7" s="2">
         <v>47.5</v>
       </c>
-      <c r="I7" s="199" t="s">
+      <c r="I7" s="183" t="s">
         <v>192</v>
       </c>
       <c r="J7" s="2">
@@ -4192,7 +4211,7 @@
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="182" t="s">
         <v>197</v>
       </c>
       <c r="H8" s="2">
@@ -4206,54 +4225,54 @@
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A9" s="198" t="s">
+      <c r="A9" s="182" t="s">
         <v>198</v>
       </c>
       <c r="H9" s="2">
         <v>48.1</v>
       </c>
-      <c r="J9" s="200">
+      <c r="J9" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A10" s="198" t="s">
+      <c r="A10" s="182" t="s">
         <v>199</v>
       </c>
       <c r="H10" s="2">
         <v>46</v>
       </c>
-      <c r="J10" s="200" t="s">
+      <c r="J10" s="184" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="182" t="s">
         <v>200</v>
       </c>
       <c r="H11" s="2">
         <v>49</v>
       </c>
-      <c r="J11" s="200" t="s">
+      <c r="J11" s="184" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A12" s="198" t="s">
+      <c r="A12" s="182" t="s">
         <v>201</v>
       </c>
       <c r="H12" s="2">
         <v>41.3</v>
       </c>
-      <c r="J12" s="199" t="s">
+      <c r="J12" s="183" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="H13" s="201">
+      <c r="H13" s="185">
         <v>41.667687898769003</v>
       </c>
       <c r="J13" s="2">
@@ -4261,7 +4280,7 @@
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="182" t="s">
         <v>203</v>
       </c>
       <c r="H14" s="2">
@@ -4272,7 +4291,7 @@
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A15" s="198" t="s">
+      <c r="A15" s="182" t="s">
         <v>204</v>
       </c>
       <c r="H15" s="2">
@@ -4283,7 +4302,7 @@
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.15">
-      <c r="A16" s="198" t="s">
+      <c r="A16" s="182" t="s">
         <v>205</v>
       </c>
       <c r="H16" s="2">
@@ -4294,7 +4313,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="198" t="s">
+      <c r="A17" s="182" t="s">
         <v>206</v>
       </c>
       <c r="H17" s="2">
@@ -4305,7 +4324,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="198" t="s">
+      <c r="A18" s="182" t="s">
         <v>207</v>
       </c>
       <c r="H18" s="2">
@@ -4316,7 +4335,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="182" t="s">
         <v>208</v>
       </c>
       <c r="H19" s="2">
@@ -4327,7 +4346,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="198" t="s">
+      <c r="A20" s="182" t="s">
         <v>209</v>
       </c>
       <c r="H20" s="2">
@@ -4338,7 +4357,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="198" t="s">
+      <c r="A21" s="182" t="s">
         <v>210</v>
       </c>
       <c r="H21" s="2">
@@ -4349,7 +4368,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="198" t="s">
+      <c r="A22" s="182" t="s">
         <v>211</v>
       </c>
       <c r="H22" s="2">
@@ -4409,13 +4428,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="24" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
       <c r="F1" s="96" t="s">
         <v>29</v>
       </c>
@@ -4429,8 +4448,8 @@
       <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:15" s="24" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="69"/>
       <c r="D2" s="70"/>
       <c r="E2" s="69"/>
@@ -4446,10 +4465,10 @@
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="196" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="23"/>
@@ -4684,8 +4703,8 @@
       <c r="AF1" s="25"/>
     </row>
     <row r="2" spans="1:32" s="24" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="69"/>
       <c r="D2" s="70"/>
       <c r="E2" s="25"/>
@@ -4718,10 +4737,10 @@
       <c r="AF2" s="25"/>
     </row>
     <row r="3" spans="1:32" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="201" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="23"/>
@@ -4741,10 +4760,10 @@
       <c r="K3" s="94"/>
       <c r="L3" s="94"/>
       <c r="M3" s="23"/>
-      <c r="N3" s="193" t="s">
+      <c r="N3" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="193"/>
+      <c r="O3" s="197"/>
       <c r="P3" s="95"/>
       <c r="Q3" s="95"/>
       <c r="R3" s="23"/>
